--- a/biology/Médecine/Jean-Jacques-Louis_Hoin/Jean-Jacques-Louis_Hoin.xlsx
+++ b/biology/Médecine/Jean-Jacques-Louis_Hoin/Jean-Jacques-Louis_Hoin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Jacques Hoin, né le 10 avril 1722 à Dijon où il est mort le 4 octobre 1772, est un chirurgien français.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Jacques Hoin est né sur la paroisse Saint Jean de Dijon le 10 avril 1722 ; baptisé le lendemain en l'église Saint Jean, c'est le fils de Pierre Hoin maître chirurgien et de Elisabeth L'Huyt son épouse ; il a eu pour parrain maître Jean-Jacques L'Huyt également chirurgien et pour marraine Marguerite Cornuelle.
 Chirurgien diplômé à Dijon, chirurgien externe du grand hôpital, associé de l’Académie de Dijon le 12 août 1740 et pensionné le 16 février 1747, associé de l’Académie royale de chirurgie, Hoin dut sa grande réputation à son habileté et à son travail opiniâtre. Il est surtout connu pour ses exposés sur les hernies du vagin et du périnée, pour ses observations sur la cataracte rayonnée et la cataracte secondaire, et pour ses remarques sur les opérations de la vessie chez les femmes.
 Il épouse à l'église Saint Jean de Dijon le 21 avril 1747 Catherine Burette.
-Desault a dit en parlant de Hoin qu’il était « recommandable à la fois par son savoir et par son amour pour l’art qu’il professait[1] ». Peu de travailleurs ont accumulé une somme de documents supérieure à celle laissée ce chirurgien. Ses manuscrits comprennent 14 gros volumes in-4° de 500 à 600 pages. Il fut aussi un lecteur assidu des philosophes des Lumières.
+Desault a dit en parlant de Hoin qu’il était « recommandable à la fois par son savoir et par son amour pour l’art qu’il professait ». Peu de travailleurs ont accumulé une somme de documents supérieure à celle laissée ce chirurgien. Ses manuscrits comprennent 14 gros volumes in-4° de 500 à 600 pages. Il fut aussi un lecteur assidu des philosophes des Lumières.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Discours sur l’utilité des passions par rapport à la santé, avec un éloge historique de M. Petit, médecin, et l’art de conserver la santé réduit à un seul principe, Paris, 1752, in-8° ;
 Lettres concernant quelques observations sur diverses espèces de cataractes, dans le Mercure de France, août 1759 ;Sur la cataracte radiée.
@@ -555,7 +571,7 @@
 Mémoire sur la vitalité des enfants, Londres et Paris, 1765, in-8° ;
 Essai sur des hernies rares et peu connues, etc., inséré dans la Nouvelle Méthode de traiter les hernies de Leblanc ;
 Mémoire dans lequel on examine si un curé est mort de mauvais traitemens et surtout d’une mutilation aux parties naturelles, Dijon, 1771, in-4° ;
-Article Anus artificiel dans le Supplément à l'Encyclopédie[2].
+Article Anus artificiel dans le Supplément à l'Encyclopédie.
 Les mémoires de l’Académie royale de chirurgie et ceux de l’Académie de Dijon, renferment un assez grand nombre d’articles de Hoin dont :
 Sur une espèce de cataracte nouvellement observée par Hoin. Mémoires de l’académie royale de chirurgie, t. II, p. 425 à 430. ;
 Observations sur le déplacement de la matrice et du vagin, dans le Mémoire de Sabatier. Mémoires de l’académie royale de chirurgie, t. 3 ;
